--- a/config_8.10/item_config.xlsx
+++ b/config_8.10/item_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="1084">
   <si>
     <t>id|行号</t>
   </si>
@@ -3697,6 +3697,18 @@
   </si>
   <si>
     <t>爱心</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>small_tip|提示</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽大奖</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -4299,11 +4311,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q341"/>
+  <dimension ref="A1:R341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R86" sqref="R86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4323,10 +4335,11 @@
     <col min="13" max="13" width="24.25" style="10" customWidth="1"/>
     <col min="14" max="14" width="21.125" style="10" customWidth="1"/>
     <col min="15" max="17" width="12.75" style="10" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="10"/>
+    <col min="18" max="18" width="12" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="90.75" customHeight="1">
+    <row r="1" spans="1:18" ht="90.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4378,8 +4391,11 @@
       <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="20" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4406,7 +4422,7 @@
       </c>
       <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -4438,7 +4454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -4464,7 +4480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4490,7 +4506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4516,7 +4532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -4542,7 +4558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4568,7 +4584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -4603,7 +4619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -4630,7 +4646,7 @@
       </c>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -4657,7 +4673,7 @@
       </c>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4684,7 +4700,7 @@
       </c>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -4711,7 +4727,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -4738,7 +4754,7 @@
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -4765,7 +4781,7 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -6363,7 +6379,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16.5">
+    <row r="65" spans="1:18" ht="16.5">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -6398,7 +6414,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:18">
       <c r="A66" s="10">
         <v>65</v>
       </c>
@@ -6430,7 +6446,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:18">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -6462,7 +6478,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:18">
       <c r="A68" s="10">
         <v>67</v>
       </c>
@@ -6494,7 +6510,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:18">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -6526,7 +6542,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16.5">
+    <row r="70" spans="1:18" ht="16.5">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -6561,7 +6577,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="16.5">
+    <row r="71" spans="1:18" ht="16.5">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -6593,7 +6609,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16.5">
+    <row r="72" spans="1:18" ht="16.5">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -6625,7 +6641,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16.5">
+    <row r="73" spans="1:18" ht="16.5">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -6663,7 +6679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:18">
       <c r="A74" s="10">
         <v>73</v>
       </c>
@@ -6701,7 +6717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16.5">
+    <row r="75" spans="1:18" ht="16.5">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -6739,7 +6755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16.5">
+    <row r="76" spans="1:18" ht="16.5">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -6775,7 +6791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="27">
+    <row r="77" spans="1:18" ht="27">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -6810,7 +6826,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:18">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -6843,7 +6859,7 @@
       </c>
       <c r="L78" s="14"/>
     </row>
-    <row r="79" spans="1:14" ht="16.5">
+    <row r="79" spans="1:18" ht="16.5">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -6875,7 +6891,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16.5">
+    <row r="80" spans="1:18" ht="16.5">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -6906,7 +6922,12 @@
       <c r="J80" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="L80" s="14"/>
+      <c r="L80" s="14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="R80" s="43" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="81" spans="1:17" ht="16.5">
       <c r="A81" s="10">
